--- a/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>22,91%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>19,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>5,24%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,8; 19,64</t>
+          <t>0,0; 20,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,33</t>
+          <t>3,2; 30,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,16; 18,85</t>
+          <t>0; 6,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,78</t>
+          <t>0; 10,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,45; 26,9</t>
+          <t>10,86; 41,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,13</t>
+          <t>3,58; 30,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,18</t>
+          <t>5,27; 43,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,8</t>
+          <t>0,0; 27,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,37</t>
+          <t>5,89; 25,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,81</t>
+          <t>5,3; 24,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,59</t>
+          <t>2,52; 23,25</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,98</t>
+          <t>0,0; 17,61</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>12,05%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,77; 16,48</t>
+          <t>11,8; 19,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,87</t>
+          <t>10,63; 18,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,82</t>
+          <t>11,16; 18,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,28</t>
+          <t>10,24; 20,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,86</t>
+          <t>17,45; 26,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,91</t>
+          <t>15,6; 25,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,9; 21,24</t>
+          <t>10,03; 18,18</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,79</t>
+          <t>6,03; 13,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,89</t>
+          <t>15,51; 21,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,47</t>
+          <t>13,82; 19,81</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,89</t>
+          <t>11,74; 17,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,43</t>
+          <t>9,11; 15,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,61%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>26,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>22,06%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>10,9; 20,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,2; 30,94</t>
+          <t>9,38; 18,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>9,34; 18,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>12,75; 24,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,86; 41,53</t>
+          <t>16,15; 26,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 30,84</t>
+          <t>10,25; 19,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,27; 43,09</t>
+          <t>7,95; 16,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,24</t>
+          <t>19,78; 39,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,89; 25,79</t>
+          <t>14,34; 21,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,3; 24,3</t>
+          <t>10,85; 17,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,52; 23,25</t>
+          <t>9,76; 15,88</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,61</t>
+          <t>17,67; 28,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>10,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>11,44%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,9; 20,3</t>
+          <t>8,77; 16,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,69</t>
+          <t>5,89; 12,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,39</t>
+          <t>9,64; 17,82</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>12,75; 24,25</t>
+          <t>7,63; 15,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,88</t>
+          <t>7,98; 15,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,2</t>
+          <t>11,96; 20,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,95; 16,18</t>
+          <t>11,9; 21,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>19,78; 39,38</t>
+          <t>8,19; 16,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,47</t>
+          <t>9,41; 14,89</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 17,16</t>
+          <t>9,6; 15,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9,76; 15,88</t>
+          <t>11,6; 17,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,73</t>
+          <t>8,42; 14,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,86</t>
+          <t>0,0; 26,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 30,94</t>
+          <t>3,17; 31,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,86; 41,53</t>
+          <t>9,52; 42,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 30,84</t>
+          <t>3,64; 31,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,27; 43,09</t>
+          <t>5,14; 42,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,89; 25,79</t>
+          <t>5,69; 25,44</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,3; 24,3</t>
+          <t>5,29; 24,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 23,25</t>
+          <t>2,45; 21,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 22,38</t>
+          <t>11,81; 22,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 24,13</t>
+          <t>13,04; 24,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,97</t>
+          <t>7,44; 17,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 27,21</t>
+          <t>3,28; 28,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 22,99</t>
+          <t>11,31; 22,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 23,2</t>
+          <t>11,12; 23,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,94; 16,47</t>
+          <t>6,13; 15,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 15,2</t>
+          <t>5,76; 15,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 21,2</t>
+          <t>13,24; 21,3</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,53; 22,2</t>
+          <t>13,76; 21,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 14,7</t>
+          <t>7,54; 14,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 18,55</t>
+          <t>5,93; 21,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 19,64</t>
+          <t>11,36; 19,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,63; 18,33</t>
+          <t>10,53; 18,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 18,85</t>
+          <t>10,87; 19,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,24; 20,78</t>
+          <t>10,12; 19,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,45; 26,9</t>
+          <t>16,58; 26,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,6; 25,13</t>
+          <t>15,7; 25,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 18,18</t>
+          <t>10,46; 18,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,03; 13,8</t>
+          <t>6,16; 13,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,51; 21,37</t>
+          <t>15,34; 21,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,82; 19,81</t>
+          <t>14,11; 20,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,74; 17,59</t>
+          <t>11,44; 17,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,98</t>
+          <t>9,56; 15,89</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,9; 20,3</t>
+          <t>10,28; 20,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,38; 18,69</t>
+          <t>9,46; 18,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,39</t>
+          <t>9,34; 18,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,75; 24,25</t>
+          <t>13,08; 24,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 26,88</t>
+          <t>15,64; 26,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 19,2</t>
+          <t>10,2; 19,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 16,18</t>
+          <t>8,11; 16,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,78; 39,38</t>
+          <t>19,94; 39,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,34; 21,47</t>
+          <t>14,1; 21,47</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,85; 17,16</t>
+          <t>10,92; 17,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 15,88</t>
+          <t>9,52; 15,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,73</t>
+          <t>17,24; 29,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,77; 16,48</t>
+          <t>8,79; 16,38</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,87</t>
+          <t>5,91; 12,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 17,82</t>
+          <t>9,41; 17,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,63; 15,28</t>
+          <t>7,57; 15,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 15,86</t>
+          <t>8,02; 16,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,96; 20,91</t>
+          <t>11,83; 21,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 21,24</t>
+          <t>11,89; 21,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,79</t>
+          <t>8,4; 17,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 14,89</t>
+          <t>9,4; 14,8</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,6; 15,47</t>
+          <t>9,61; 15,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,6; 17,89</t>
+          <t>11,78; 17,89</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,43</t>
+          <t>8,51; 14,64</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,22; 16,33</t>
+          <t>12,36; 16,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,29; 15,44</t>
+          <t>11,24; 15,29</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,14</t>
+          <t>11,0; 15,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,93; 16,76</t>
+          <t>10,85; 16,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 19,93</t>
+          <t>15,23; 20,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,38; 19,21</t>
+          <t>14,46; 19,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,73</t>
+          <t>11,56; 16,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,07; 19,1</t>
+          <t>12,02; 18,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,28; 17,45</t>
+          <t>14,25; 17,33</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,3; 16,49</t>
+          <t>13,23; 16,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,75; 14,83</t>
+          <t>11,68; 14,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,07; 16,55</t>
+          <t>12,1; 16,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,68</t>
+          <t>0,0; 17,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 31,62</t>
+          <t>5,79; 31,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -744,49 +744,49 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,52; 42,01</t>
+          <t>8,21; 41,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,64; 31,02</t>
+          <t>3,67; 32,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 42,48</t>
+          <t>4,97; 42,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,24</t>
+          <t>0,0; 26,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,69; 25,44</t>
+          <t>5,87; 26,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,29; 24,59</t>
+          <t>5,66; 24,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 21,76</t>
+          <t>2,41; 20,77</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,61</t>
+          <t>0,0; 16,38</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,81; 22,41</t>
+          <t>11,67; 23,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,04; 24,55</t>
+          <t>12,82; 24,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 17,06</t>
+          <t>6,99; 16,68</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 28,47</t>
+          <t>3,21; 27,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,31; 22,69</t>
+          <t>11,29; 23,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 23,56</t>
+          <t>10,86; 23,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 15,94</t>
+          <t>6,08; 15,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,66</t>
+          <t>5,68; 15,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,24; 21,3</t>
+          <t>12,97; 20,72</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 21,79</t>
+          <t>13,87; 22,12</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,54; 14,3</t>
+          <t>7,39; 14,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,93; 21,37</t>
+          <t>6,1; 21,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,36; 19,61</t>
+          <t>11,62; 19,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,53; 18,26</t>
+          <t>10,76; 18,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,87; 19,14</t>
+          <t>11,31; 19,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,12; 19,78</t>
+          <t>10,42; 20,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,58; 26,09</t>
+          <t>16,99; 26,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,7; 25,24</t>
+          <t>15,76; 25,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 18,05</t>
+          <t>10,13; 18,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,16; 13,94</t>
+          <t>6,37; 13,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,34; 21,52</t>
+          <t>15,3; 21,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,11; 20,31</t>
+          <t>13,9; 19,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,44; 17,35</t>
+          <t>11,66; 17,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,56; 15,89</t>
+          <t>9,27; 15,74</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,28; 20,44</t>
+          <t>10,79; 20,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 18,23</t>
+          <t>9,65; 18,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,34; 18,56</t>
+          <t>9,04; 18,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,08; 24,2</t>
+          <t>12,94; 23,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 26,9</t>
+          <t>16,11; 27,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,2; 19,33</t>
+          <t>10,4; 19,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,13</t>
+          <t>7,82; 16,03</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,94; 39,1</t>
+          <t>19,46; 38,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 21,47</t>
+          <t>14,67; 21,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,92; 17,54</t>
+          <t>10,87; 17,21</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,52; 15,53</t>
+          <t>9,58; 15,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,24; 29,46</t>
+          <t>17,42; 29,43</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,79; 16,38</t>
+          <t>8,94; 16,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 12,69</t>
+          <t>5,79; 12,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,41; 17,62</t>
+          <t>9,46; 17,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,57; 15,69</t>
+          <t>7,31; 15,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,02; 16,08</t>
+          <t>7,68; 15,7</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,83; 21,11</t>
+          <t>11,91; 21,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,89; 21,1</t>
+          <t>11,9; 20,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,4; 17,04</t>
+          <t>7,56; 16,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,4; 14,8</t>
+          <t>9,26; 15,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,61; 15,21</t>
+          <t>9,75; 15,61</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,78; 17,89</t>
+          <t>11,8; 17,98</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,64</t>
+          <t>8,55; 14,63</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,36; 16,65</t>
+          <t>12,14; 16,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,29</t>
+          <t>11,11; 15,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>11,0; 15,2</t>
+          <t>10,81; 15,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>10,85; 16,67</t>
+          <t>10,98; 16,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>15,23; 20,17</t>
+          <t>15,33; 20,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,23</t>
+          <t>14,61; 19,18</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 16,05</t>
+          <t>11,57; 15,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,02; 18,52</t>
+          <t>11,91; 18,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,33</t>
+          <t>14,12; 17,43</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,23; 16,43</t>
+          <t>13,47; 16,43</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>11,68; 14,84</t>
+          <t>11,63; 14,75</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,47</t>
+          <t>12,0; 16,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP2003-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>16,04%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>17,55%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>9,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>11,0%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 17,68</t>
+          <t>13,29; 24,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,79; 31,42</t>
+          <t>10,84; 21,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>7,48; 17,65</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>6,36; 15,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,21; 41,62</t>
+          <t>10,28; 20,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,67; 32,8</t>
+          <t>12,54; 23,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,97; 42,73</t>
+          <t>5,86; 14,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,42</t>
+          <t>2,7; 33,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,87; 26,18</t>
+          <t>12,78; 19,69</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,66; 24,36</t>
+          <t>13,5; 21,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,41; 20,77</t>
+          <t>7,66; 13,84</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,38</t>
+          <t>6,23; 22,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>13,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,75%</t>
+          <t>9,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>15,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>14,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>14,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>14,92%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>18,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>14,27%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>12,56%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 23,0</t>
+          <t>17,45; 26,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>12,82; 24,55</t>
+          <t>15,6; 25,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,99; 16,68</t>
+          <t>10,03; 18,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 27,56</t>
+          <t>6,13; 14,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,29; 23,46</t>
+          <t>11,8; 19,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,86; 23,64</t>
+          <t>10,63; 18,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 15,64</t>
+          <t>11,16; 18,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,68; 15,19</t>
+          <t>10,75; 22,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,72</t>
+          <t>15,51; 21,37</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>13,87; 22,12</t>
+          <t>13,82; 19,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,39; 14,76</t>
+          <t>11,74; 17,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 21,21</t>
+          <t>9,42; 17,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>20,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,67%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>33,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>21,53%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>13,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>13,82%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>17,95%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>13,89%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,27%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>25,8%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,62; 19,86</t>
+          <t>16,15; 26,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,76; 18,44</t>
+          <t>10,25; 19,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 19,05</t>
+          <t>7,95; 16,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,42; 20,67</t>
+          <t>21,11; 59,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 26,39</t>
+          <t>10,9; 20,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,76; 25,2</t>
+          <t>9,38; 18,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,13; 18,13</t>
+          <t>9,34; 18,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,37; 13,96</t>
+          <t>12,67; 24,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,3; 21,22</t>
+          <t>14,34; 21,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>13,9; 19,65</t>
+          <t>10,85; 17,16</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,14</t>
+          <t>9,76; 15,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,74</t>
+          <t>18,47; 43,72</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,61%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>20,98%</t>
+          <t>12,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>14,26%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>11,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>11,81%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>12,38%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>11,64%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 20,42</t>
+          <t>7,98; 15,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 18,19</t>
+          <t>11,96; 20,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 18,78</t>
+          <t>11,9; 21,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,94; 23,73</t>
+          <t>8,36; 17,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 27,41</t>
+          <t>8,77; 16,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 19,89</t>
+          <t>5,89; 12,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,82; 16,03</t>
+          <t>9,64; 17,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,46; 38,38</t>
+          <t>7,75; 15,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,82</t>
+          <t>9,41; 14,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10,87; 17,21</t>
+          <t>9,6; 15,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>9,58; 15,86</t>
+          <t>11,6; 17,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,42; 29,43</t>
+          <t>8,56; 14,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>17,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>15,93%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,01%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,23%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>8,94; 16,66</t>
+          <t>15,19; 19,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,79; 12,74</t>
+          <t>14,38; 19,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,46; 17,67</t>
+          <t>11,24; 15,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,31; 15,58</t>
+          <t>12,76; 28,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 15,7</t>
+          <t>12,22; 16,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,11</t>
+          <t>11,29; 15,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,9; 20,81</t>
+          <t>11,05; 15,14</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,56; 16,68</t>
+          <t>11,46; 18,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,26; 15,05</t>
+          <t>14,28; 17,45</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,75; 15,61</t>
+          <t>13,3; 16,49</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,8; 17,98</t>
+          <t>11,75; 14,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,55; 14,63</t>
+          <t>13,05; 21,88</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,19%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>12,97%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>13,29%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>17,57%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>16,78%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>13,51%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>14,58%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>15,85%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>14,93%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>13,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>12,14; 16,58</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,11; 15,39</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>10,81; 15,1</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>10,98; 16,78</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>15,33; 20,04</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>14,61; 19,18</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>11,57; 15,85</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>11,91; 18,58</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>14,12; 17,43</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>13,47; 16,43</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>11,63; 14,75</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>12,0; 16,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
